--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -1234,14 +1234,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1913,13 +1914,13 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="I42" t="s">
         <v>3</v>
       </c>
       <c r="J42">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -1927,13 +1928,13 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="I43" t="s">
         <v>4</v>
       </c>
       <c r="J43">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -1941,13 +1942,13 @@
         <v>5</v>
       </c>
       <c r="B44">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
       </c>
       <c r="J44">
-        <v>10000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
